--- a/data/output/FV2504_FV2410/UTILMD/55039.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55039.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="245">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="245">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -882,6 +882,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U100" totalsRowShown="0">
+  <autoFilter ref="A1:U100"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1171,7 +1201,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5868,5 +5901,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55039.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55039.xlsx
@@ -1157,7 +1157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1180,6 +1180,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1188,6 +1191,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1630,7 +1636,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1994,7 +2000,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2140,7 +2146,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2342,7 +2348,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2650,7 +2656,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2850,7 +2856,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3224,7 +3230,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3532,7 +3538,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3708,54 +3714,54 @@
       <c r="V42" s="5"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="E43" s="2"/>
       <c r="F43" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5" t="s">
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="K43" s="5" t="s">
+      <c r="K43" s="2" t="s">
         <v>219</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="M43" s="5" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="O43" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P43" s="5"/>
+      <c r="P43" s="2"/>
       <c r="Q43" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5" t="s">
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="V43" s="5" t="s">
+      <c r="V43" s="2" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3942,26 +3948,26 @@
       <c r="B47" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8" t="s">
+      <c r="E47" s="9"/>
+      <c r="F47" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8" t="s">
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="K47" s="8" t="s">
+      <c r="K47" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="L47" s="9" t="s">
+      <c r="L47" s="10" t="s">
         <v>230</v>
       </c>
       <c r="M47" s="5"/>
@@ -3979,33 +3985,33 @@
       <c r="A48" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8" t="s">
+      <c r="H48" s="9"/>
+      <c r="I48" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J48" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="9" t="s">
+      <c r="J48" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="K48" s="9"/>
+      <c r="L48" s="10" t="s">
         <v>230</v>
       </c>
       <c r="M48" s="5"/>
@@ -4023,31 +4029,31 @@
       <c r="A49" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8" t="s">
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="J49" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="9" t="s">
+      <c r="K49" s="9"/>
+      <c r="L49" s="10" t="s">
         <v>230</v>
       </c>
       <c r="M49" s="5"/>
@@ -4065,33 +4071,33 @@
       <c r="A50" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="G50" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8" t="s">
+      <c r="H50" s="9"/>
+      <c r="I50" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="J50" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="K50" s="8"/>
-      <c r="L50" s="9" t="s">
+      <c r="J50" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="K50" s="9"/>
+      <c r="L50" s="10" t="s">
         <v>230</v>
       </c>
       <c r="M50" s="5"/>
@@ -4112,26 +4118,26 @@
       <c r="B51" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8" t="s">
+      <c r="E51" s="9"/>
+      <c r="F51" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8" t="s">
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="K51" s="8" t="s">
+      <c r="K51" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="L51" s="9" t="s">
+      <c r="L51" s="10" t="s">
         <v>230</v>
       </c>
       <c r="M51" s="5"/>
@@ -4149,33 +4155,33 @@
       <c r="A52" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8" t="s">
+      <c r="H52" s="9"/>
+      <c r="I52" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J52" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="9" t="s">
+      <c r="J52" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="K52" s="9"/>
+      <c r="L52" s="10" t="s">
         <v>230</v>
       </c>
       <c r="M52" s="5"/>
@@ -4193,33 +4199,33 @@
       <c r="A53" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8" t="s">
+      <c r="H53" s="9"/>
+      <c r="I53" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="J53" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="K53" s="8"/>
-      <c r="L53" s="9" t="s">
+      <c r="J53" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="K53" s="9"/>
+      <c r="L53" s="10" t="s">
         <v>230</v>
       </c>
       <c r="M53" s="5"/>
@@ -4237,31 +4243,31 @@
       <c r="A54" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8" t="s">
+      <c r="F54" s="9"/>
+      <c r="G54" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8" t="s">
+      <c r="H54" s="9"/>
+      <c r="I54" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="J54" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="K54" s="8"/>
-      <c r="L54" s="9" t="s">
+      <c r="J54" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="K54" s="9"/>
+      <c r="L54" s="10" t="s">
         <v>230</v>
       </c>
       <c r="M54" s="5"/>
@@ -4289,29 +4295,29 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="10" t="s">
+      <c r="L55" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="M55" s="11" t="s">
+      <c r="M55" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="N55" s="11" t="s">
+      <c r="N55" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O55" s="11" t="s">
+      <c r="O55" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11" t="s">
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="11" t="s">
+      <c r="R55" s="13"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="V55" s="11" t="s">
+      <c r="V55" s="13" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4329,35 +4335,35 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="10" t="s">
+      <c r="L56" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="M56" s="11" t="s">
+      <c r="M56" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="N56" s="11" t="s">
+      <c r="N56" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O56" s="11" t="s">
+      <c r="O56" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="P56" s="11" t="s">
+      <c r="P56" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="Q56" s="11" t="s">
+      <c r="Q56" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="R56" s="11" t="s">
+      <c r="R56" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11" t="s">
+      <c r="S56" s="13"/>
+      <c r="T56" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="U56" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="V56" s="11"/>
+      <c r="U56" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="V56" s="13"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="5" t="s">
@@ -4373,33 +4379,33 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="10" t="s">
+      <c r="L57" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="M57" s="11" t="s">
+      <c r="M57" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="N57" s="11" t="s">
+      <c r="N57" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O57" s="11" t="s">
+      <c r="O57" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="P57" s="11" t="s">
+      <c r="P57" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="Q57" s="11" t="s">
+      <c r="Q57" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="R57" s="11"/>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11" t="s">
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="U57" s="11" t="s">
+      <c r="U57" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="V57" s="11"/>
+      <c r="V57" s="13"/>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="5" t="s">
@@ -4415,35 +4421,35 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="10" t="s">
+      <c r="L58" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M58" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="N58" s="11" t="s">
+      <c r="N58" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O58" s="11" t="s">
+      <c r="O58" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="P58" s="11" t="s">
+      <c r="P58" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="Q58" s="11" t="s">
+      <c r="Q58" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="R58" s="11" t="s">
+      <c r="R58" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11" t="s">
+      <c r="S58" s="13"/>
+      <c r="T58" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="U58" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="V58" s="11"/>
+      <c r="U58" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="V58" s="13"/>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="5" t="s">
@@ -4459,29 +4465,29 @@
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="10" t="s">
+      <c r="L59" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="M59" s="11" t="s">
+      <c r="M59" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="N59" s="11" t="s">
+      <c r="N59" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O59" s="11" t="s">
+      <c r="O59" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11" t="s">
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="R59" s="11"/>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11"/>
-      <c r="U59" s="11" t="s">
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="V59" s="11"/>
+      <c r="V59" s="13"/>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="5" t="s">
@@ -4497,35 +4503,35 @@
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="10" t="s">
+      <c r="L60" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="M60" s="11" t="s">
+      <c r="M60" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="N60" s="11" t="s">
+      <c r="N60" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O60" s="11" t="s">
+      <c r="O60" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P60" s="11" t="s">
+      <c r="P60" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="Q60" s="11" t="s">
+      <c r="Q60" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="R60" s="11" t="s">
+      <c r="R60" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11" t="s">
+      <c r="S60" s="13"/>
+      <c r="T60" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="U60" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="V60" s="11"/>
+      <c r="U60" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="V60" s="13"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="5" t="s">
@@ -4541,35 +4547,35 @@
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="10" t="s">
+      <c r="L61" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="M61" s="11" t="s">
+      <c r="M61" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="N61" s="11" t="s">
+      <c r="N61" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O61" s="11" t="s">
+      <c r="O61" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P61" s="11" t="s">
+      <c r="P61" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="Q61" s="11" t="s">
+      <c r="Q61" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="R61" s="11" t="s">
+      <c r="R61" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11" t="s">
+      <c r="S61" s="13"/>
+      <c r="T61" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="U61" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="V61" s="11"/>
+      <c r="U61" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="V61" s="13"/>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="5" t="s">
@@ -4585,33 +4591,33 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="10" t="s">
+      <c r="L62" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="M62" s="11" t="s">
+      <c r="M62" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="N62" s="11" t="s">
+      <c r="N62" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O62" s="11" t="s">
+      <c r="O62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P62" s="11" t="s">
+      <c r="P62" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11" t="s">
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11" t="s">
+      <c r="S62" s="13"/>
+      <c r="T62" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="U62" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="V62" s="11"/>
+      <c r="U62" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="V62" s="13"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="2" t="s">
@@ -4636,7 +4642,7 @@
         <v>222</v>
       </c>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -4846,7 +4852,7 @@
         <v>224</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5054,7 +5060,7 @@
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -5262,7 +5268,7 @@
         <v>226</v>
       </c>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -5410,7 +5416,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -5536,52 +5542,52 @@
       <c r="V80" s="5"/>
     </row>
     <row r="81" spans="1:22">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E81" s="5"/>
+      <c r="E81" s="2"/>
       <c r="F81" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5" t="s">
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="K81" s="5"/>
+      <c r="K81" s="2"/>
       <c r="L81" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="M81" s="5" t="s">
+      <c r="M81" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N81" s="5" t="s">
+      <c r="N81" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O81" s="5" t="s">
+      <c r="O81" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P81" s="5"/>
+      <c r="P81" s="2"/>
       <c r="Q81" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
-      <c r="T81" s="5"/>
-      <c r="U81" s="5" t="s">
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="V81" s="5"/>
+      <c r="V81" s="2"/>
     </row>
     <row r="82" spans="1:22">
       <c r="A82" s="5" t="s">
@@ -5720,7 +5726,7 @@
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -6038,7 +6044,7 @@
         <v>227</v>
       </c>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -6450,48 +6456,48 @@
       <c r="V97" s="5"/>
     </row>
     <row r="98" spans="1:22">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5" t="s">
+      <c r="C98" s="2"/>
+      <c r="D98" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E98" s="5"/>
+      <c r="E98" s="2"/>
       <c r="F98" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5" t="s">
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="K98" s="5"/>
+      <c r="K98" s="2"/>
       <c r="L98" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="M98" s="5" t="s">
+      <c r="M98" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N98" s="5"/>
-      <c r="O98" s="5" t="s">
+      <c r="N98" s="2"/>
+      <c r="O98" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P98" s="5"/>
+      <c r="P98" s="2"/>
       <c r="Q98" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="R98" s="5"/>
-      <c r="S98" s="5"/>
-      <c r="T98" s="5"/>
-      <c r="U98" s="5" t="s">
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="V98" s="5"/>
+      <c r="V98" s="2"/>
     </row>
     <row r="99" spans="1:22">
       <c r="A99" s="5" t="s">
